--- a/docentes/Miguel Lopez Yadira - Estadisticos 20242.xlsx
+++ b/docentes/Miguel Lopez Yadira - Estadisticos 20242.xlsx
@@ -536,16 +536,19 @@
         <v>35</v>
       </c>
       <c r="D2">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>97.14</v>
+      </c>
+      <c r="H2">
+        <v>7.4</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +616,7 @@
         <v>97.14</v>
       </c>
       <c r="H2">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
     </row>
   </sheetData>
